--- a/part_3_cohere/analysis/Round_1_dense_analysis_cohere_embed_v4_0/dense_answer_relevance_results_data.xlsx
+++ b/part_3_cohere/analysis/Round_1_dense_analysis_cohere_embed_v4_0/dense_answer_relevance_results_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/part_3_cohere/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/part_3_cohere/analysis/Round_1_dense_analysis_cohere_embed_v4_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4468BB-0F7F-0944-8AC0-1C2F254664DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481BB675-821A-7146-97E2-82BD5BF8175A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="800" windowWidth="27520" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="760" windowWidth="27520" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="67" r:id="rId5"/>
+    <pivotCache cacheId="20" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -854,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -869,12 +869,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -906,37 +904,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -2402,7 +2370,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2803,7 +2771,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68A99A02-590A-1048-9043-1553E6041CA9}" name="PivotTable12" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68A99A02-590A-1048-9043-1553E6041CA9}" name="PivotTable12" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -2885,10 +2853,10 @@
     <dataField name="Average of Answer_relevance:data" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3220,10 +3188,10 @@
       <c r="B3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3231,7 +3199,7 @@
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>0.2</v>
       </c>
       <c r="C4">
@@ -3247,7 +3215,7 @@
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
@@ -3263,7 +3231,7 @@
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
@@ -3279,7 +3247,7 @@
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>0.6</v>
       </c>
       <c r="C7">
@@ -3295,7 +3263,7 @@
       <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
@@ -3311,7 +3279,7 @@
       <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
@@ -3327,7 +3295,7 @@
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>0.2</v>
       </c>
       <c r="C10">
@@ -3343,7 +3311,7 @@
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>0.4</v>
       </c>
       <c r="C11">
@@ -3359,7 +3327,7 @@
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
@@ -3375,7 +3343,7 @@
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
@@ -3391,7 +3359,7 @@
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>0.8</v>
       </c>
       <c r="C14">
@@ -3407,7 +3375,7 @@
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>0.6</v>
       </c>
       <c r="C15">
@@ -3423,7 +3391,7 @@
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>0.2</v>
       </c>
       <c r="C16">
@@ -3439,7 +3407,7 @@
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>0.8</v>
       </c>
       <c r="C17">
@@ -3452,190 +3420,190 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="6">
         <v>0.67142857142857137</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6" t="e">
         <f>GETPIVOTDATA("Answer_relevance",[1]analysis!$A$3)</f>
-        <v>0.6901408450704225</v>
-      </c>
-      <c r="D18" s="7">
+        <v>#REF!</v>
+      </c>
+      <c r="D18" s="6" t="e">
         <f>GETPIVOTDATA("Answer_relevance",[2]analysis!$A$3)</f>
-        <v>0.84285714285714286</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <v>0.2</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <v>0.8</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
         <v>0.6</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
         <v>0.6</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>0.6</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>0.8</v>
       </c>
-      <c r="C27" s="10">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="10">
+      <c r="B28" s="8">
         <v>0.8</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <v>0.4</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="10">
+      <c r="B29" s="8">
         <v>0.2</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <v>0</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="10">
+      <c r="B30" s="8">
         <v>0.4</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="8">
         <v>0.6</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="10">
-        <v>1</v>
-      </c>
-      <c r="C31" s="10">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10">
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
         <v>0.6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="10">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10">
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
         <v>0.8</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="10">
+      <c r="B33" s="8">
         <v>0.8</v>
       </c>
-      <c r="C33" s="10">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10">
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="10">
+      <c r="B34" s="8">
         <v>0.6</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <v>0.8</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>0.4</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="10">
+      <c r="B35" s="8">
         <v>0.2</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <v>0.6</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="10">
+      <c r="B36" s="8">
         <v>0.8</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <v>0.6</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <v>1</v>
       </c>
     </row>
@@ -3652,8 +3620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3677,13 +3645,13 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>1</v>
       </c>
     </row>
@@ -3691,13 +3659,13 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>1</v>
       </c>
     </row>
@@ -3705,13 +3673,13 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>1</v>
       </c>
     </row>
@@ -3719,13 +3687,13 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3733,13 +3701,13 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>1</v>
       </c>
     </row>
@@ -3747,13 +3715,13 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3761,13 +3729,13 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3775,13 +3743,13 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3789,13 +3757,13 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3803,27 +3771,27 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="365" x14ac:dyDescent="0.2">
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="335" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>1</v>
       </c>
     </row>
@@ -3831,27 +3799,27 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="350" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="335" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
@@ -3859,13 +3827,13 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>1</v>
       </c>
     </row>
@@ -3873,27 +3841,27 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="335" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="304" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3901,55 +3869,55 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="176" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="395" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3957,13 +3925,13 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3971,13 +3939,13 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="14">
         <v>1</v>
       </c>
     </row>
@@ -3985,13 +3953,13 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="14">
         <v>1</v>
       </c>
     </row>
@@ -3999,13 +3967,13 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="14">
         <v>1</v>
       </c>
     </row>
@@ -4013,13 +3981,13 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4027,41 +3995,41 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="304" x14ac:dyDescent="0.2">
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="12">
         <v>1</v>
       </c>
     </row>
@@ -4069,13 +4037,13 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="12">
         <v>1</v>
       </c>
     </row>
@@ -4083,13 +4051,13 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="12">
         <v>1</v>
       </c>
     </row>
@@ -4097,13 +4065,13 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4111,13 +4079,13 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4125,13 +4093,13 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4139,13 +4107,13 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4153,27 +4121,27 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4181,13 +4149,13 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4195,97 +4163,97 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="D39" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="176" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="350" x14ac:dyDescent="0.2">
+      <c r="D40" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="320" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="304" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="335" x14ac:dyDescent="0.2">
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="320" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="335" x14ac:dyDescent="0.2">
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="320" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+      <c r="D44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="304" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4293,27 +4261,27 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4321,13 +4289,13 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="12">
         <v>1</v>
       </c>
     </row>
@@ -4335,13 +4303,13 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4349,13 +4317,13 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4363,41 +4331,41 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="304" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="365" x14ac:dyDescent="0.2">
+      <c r="D52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="320" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4405,27 +4373,27 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="304" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4433,13 +4401,13 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4447,27 +4415,27 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="D57" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="14">
         <v>1</v>
       </c>
     </row>
@@ -4475,13 +4443,13 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="14">
         <v>1</v>
       </c>
     </row>
@@ -4489,55 +4457,55 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="D61" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="D62" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="18">
         <v>1</v>
       </c>
     </row>
@@ -4545,13 +4513,13 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="18">
         <v>1</v>
       </c>
     </row>
@@ -4559,13 +4527,13 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="18">
         <v>1</v>
       </c>
     </row>
@@ -4573,83 +4541,83 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="350" x14ac:dyDescent="0.2">
+      <c r="D66" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="320" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="365" x14ac:dyDescent="0.2">
+      <c r="D67" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="335" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="D68" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="395" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="380" x14ac:dyDescent="0.2">
+      <c r="D69" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="365" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D70" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="304" x14ac:dyDescent="0.2">
+      <c r="D70" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="8">
         <v>1</v>
       </c>
     </row>
